--- a/Data Collection/Persons/Adolf Muschg/Muschg_all_2021.xlsx
+++ b/Data Collection/Persons/Adolf Muschg/Muschg_all_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Adolf Muschg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phildickson/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{4CC416D2-C4CC-4382-8184-7292BCE88E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FD10D4E-7050-4774-9982-27DE61CC5BF0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A9E76E-93A2-7140-8E8D-F74E0C86801C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="219">
   <si>
     <t>title</t>
   </si>
@@ -373,22 +373,6 @@
 Hier finden Sie eine Übersicht sämtlicher Highlights, die nachgehört werden können.</t>
   </si>
   <si>
-    <t>Urs Gredig verschwand bei «10 vor 10» gestern hinter der Kamera</t>
-  </si>
-  <si>
-    <t>«Wer wird Millionär?» Rocker lässt bei Günther Jauch die Hosen runter · Adolf Muschg vergleicht «Cancel Culture» mit Auschwitz. 0:46. Schweizer Schriftsteller.</t>
-  </si>
-  <si>
-    <t>https://www.blick.ch/people-tv/schweiz/panne-bei-10-vor-10-urs-gredig-verschwand-gestern-hinter-der-kamera-id16379274.html</t>
-  </si>
-  <si>
-    <t>Das konnte man gestern auch bei «10 vor 10» sehen.
-Moderator Urs Gredig nimmt es mit Humor.
-Screenshot SRF 1/7 Gestern musste Urs Gredig bei «10 vor 10» mit technischen Problemen kämpfen.
-Als Urs Gredig (50) bei «10 vor 10» gerade einen Beitrag über die Verhaftung von Journalisten in Belarus ansagte, sahen die Zuschauer plötzlich schwarz.
-Gredig teilte den Ausschnitt aus der gestrigen Sendung und schrieb dazu: «Der Beweis, dass es einen TV-Moderator nicht zwangsläufig vor die Kamera drängt.</t>
-  </si>
-  <si>
     <t>Wie die Kulturszene auf Fukushima reagierte</t>
   </si>
   <si>
@@ -446,98 +430,6 @@
 Er ist ein Schwergewicht, das in sich selbst ruht bis zum bitteren Ende.</t>
   </si>
   <si>
-    <t>Matthew McConaughey möchte noch mal in die Flitterwochen</t>
-  </si>
-  <si>
-    <t>Mehr zum Thema. Gegen Geschichtsvergessenheit? Adolf Muschg. Tabubruch. Für Adolf Muschg ist Cancel Culture „ein Teil von Auschwitz“. Mladen Gladić.</t>
-  </si>
-  <si>
-    <t>https://www.welt.de/newsticker/dpa_nt/infoline_nt/boulevard_nt/article228878723/Matthew-McConaughey-moechte-noch-mal-in-die-Flitterwochen.html</t>
-  </si>
-  <si>
-    <t>Angus Young von AC/DC: „Wir sind schon so oft gecancelt worden – was soll’s?“</t>
-  </si>
-  <si>
-    <t>Tabubruch. Für Adolf Muschg ist Cancel Culture „ein Teil von Auschwitz“. Mladen Gladić. Auch ein alter weißer Mann: Johann Sebastian Bach ...</t>
-  </si>
-  <si>
-    <t>https://www.welt.de/vermischtes/plus228871875/Angus-Young-von-AC-DC-Wir-sind-schon-so-oft-gecancelt-worden-was-soll-s.html</t>
-  </si>
-  <si>
-    <t>Sorgt dieses kulturelle Klima dafür, dass Sie einen Text wie den von „She’s Got the Jack“ („Sie hat den Tripper“) heute nicht mehr schreiben würden?
-Angus Young: Nun mal langsam, wir sind, wer wir sind, und wir machen, was wir am besten können.
-Aber wenn man den Dingen ihre Geschichte nimmt, wird das, was dabei rauskommt, bestimmt nicht besser.
-Aber sie bleibt ja doch, und ich finde es richtig, wenn die Menschen um sie wissen.
-WELT: Wie gehen Sie persönlich damit um?</t>
-  </si>
-  <si>
-    <t>Politiker sauer wegen SRF-Dok: Kiko und Magdici verharmlosen Vergewaltigung</t>
-  </si>
-  <si>
-    <t>Adolf Muschg vergleicht «Cancel Culture» mit Auschwitz. 0:46. Schweizer Schriftsteller. Adolf Muschg vergleicht «Cancel Culture» mit Auschwitz · Reto Peritz: ...</t>
-  </si>
-  <si>
-    <t>https://www.blick.ch/schweiz/politikerinnen-sauer-ueber-srf-dok-kiko-bagatellisiert-seine-vergewaltigungen-id16411020.html</t>
-  </si>
-  <si>
-    <t>Im SRF-Dok-Film vom Donnerstag über die Flucht von Hassan Kiko und der Aufseherin Angela Magdici äussert sich das Paar auch zu Kikos Vergewaltigungen – und verharmlost die Taten.
-Screenshot / SRF 1/10 Die Flucht von Gefängniswärterin Angela Magdici (36) und Häftling Hassan Kiko (31), die im Jahr 2016 aus dem Limmattaler Gefängnis türmten, war dem SRF am Donnerstagabend einen Dok-Film wert.
-Screenshot / SRF 2/10 Darin verharmlost Angela Magdici die Taten ihres heutigen Ehemanns.
-Dabei wurde Hassan Kiko von zwei Instanzen rechtskräftig verurteilt.
-«Es gibt zwei Sichtweisen, aber nur einer Seite wurde geglaubt.» Laut Magdici gebe es keine Belege für die Vergewaltigung.</t>
-  </si>
-  <si>
-    <t>«Tschugger»: Drehstart zur SRF-Fiktionsserie über Walliser Kapo-Zentrale</t>
-  </si>
-  <si>
-    <t>https://www.blick.ch/people-tv/schweiz/tschugger-entsteht-zusammen-mit-streamingdienst-srf-dreht-moechtegern-action-serie-id16415433.html</t>
-  </si>
-  <si>
-    <t>«Tschugger» ist ab November zu sehen.
-Eine Zentrale der Walliser Kantonspolizei ist Mittelpunkt der neuen, fünfteiligen SRF-Serie «Tschugger», die seit letzter Woche bis Ende April vor Ort gedreht wird.
-«Tschugger» ist ab November zu sehenBemerkenswert: Erstmals spannt das Schweizer Fernsehen für eine Filmproduktion mit einem internationalen Streaming-Dienst zusammen.
-Die Ausstrahlung von «Tschugger» ist ab November dieses Jahres geplant.
-Zu sehen ist die Serie im linearen TV und online bei SRF, parallel dazu während sechs Monaten bei Sky Show.</t>
-  </si>
-  <si>
-    <t>Christian Levrat wird VR-Präsident der Post</t>
-  </si>
-  <si>
-    <t>Klein Report</t>
-  </si>
-  <si>
-    <t>Der Schweizer Dichter und Schriftsteller Adolf Muschg gerät am Sonntag ins Kreuzfeuer auf Twitter. Grund dafür ist ein Auschwitz-Vergleich in der Sendung ...</t>
-  </si>
-  <si>
-    <t>http://www.kleinreport.ch/leute/christian-levrat-wird-vr-prasident-der-post-78163/</t>
-  </si>
-  <si>
-    <t>Der Freiburger Ständerat Christian Levrat soll den obersten Posten bei der Post übernehmen.
-Christian Levrat ersetzt Urs Schwaller, der per Ende November sein Amt abgibt.
-Zwei Monate vorher wird Christian Levrat als Ständerat zurücktreten.
-Der Bundesrat zeigte sich am Mittwoch überzeugt, dass der SP-Politiker die notwendige Weiterentwicklung der Post «in Beibehaltung eines qualitativ hochstehenden Service public» vorantreiben kann.
-Entscheidend für den Service public sei, was der Bund tue, relativierte die Gewerkschaft Syndicom die Erwartungen an den neuen Postchef.</t>
-  </si>
-  <si>
-    <t>Caspar Hirschi | Krisen über Krisen – das Ende der Welt, wie ...</t>
-  </si>
-  <si>
-    <t>YouTube</t>
-  </si>
-  <si>
-    <t>Schriftsteller Adolf Muschg über Zen – Wie geht Lebenskunst? | Sternstunde Philosophie | SRF Kultur. SRF Kultur. SRF Kultur. •. 126K views 1 week ago ...</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lFCplpqQ46I</t>
-  </si>
-  <si>
-    <t>Dienste anbieten und betreiben, z.
-Personalisierte Inhalte und Werbeanzeigen können ebenfalls darauf basieren, darüber hinaus aber auch auf Aktivitäten wie Suchanfragen bei Google und Videos, die Sie sich bei YouTube ansehen.
-Zu personalisierten Inhalten und Werbeanzeigen gehören beispielsweise Dinge wie relevantere Ergebnisse und Empfehlungen, eine individuelle YouTube-Startseite und Werbung, die auf Ihre Interessen zugeschnitten ist.
-Klicken Sie auf „Anpassen“, um sich Ihre Möglichkeiten anzusehen.
-Zu diesen gehören zum Beispiel Steuerelemente, um Cookies für die Personalisierung zu deaktivieren, oder Informationen zu Steuerelementen auf Browserebene, mit denen einige oder alle Cookies für andere Zwecke deaktiviert werden können.</t>
-  </si>
-  <si>
     <t>20 Jahre Sans-Papiers-Bewegung - Schweizer Umgang mit ...</t>
   </si>
   <si>
@@ -576,22 +468,6 @@
 Weil ich sie alle gerne persönlich kennenlernen würde: Sandra Maischberger, Emily Maitlis oder Bill Maher.</t>
   </si>
   <si>
-    <t>«Sternstunde Religion»: Amira Hafner-Al Jabaji verlässt SRF</t>
-  </si>
-  <si>
-    <t>Adolf Muschg vergleicht «Cancel Culture» mit Auschwitz. 0:46. Schweizer Schriftsteller. Adolf Muschg vergleicht «Cancel Culture» mit Auschwitz · ESC 2021: ...</t>
-  </si>
-  <si>
-    <t>https://www.blick.ch/people-tv/schweiz/sternstunde-religion-moderatorin-will-interreligioese-projekte-verwirklichen-amira-hafner-al-jabaji-verlaesst-srf-id16440239.html</t>
-  </si>
-  <si>
-    <t>Amira Hafner-Al Jabaji schlägt einen neuen Weg ein.
-Die «Sternstunde Religion»-Moderatorin verlässt auf eigenen Wunsch das SRF.
-SRF/Oscar Alessio 1/7 Amira Hafner-Al Jabaji wird künftig nicht mehr bei «Sternstunde Religion» zu sehen sein.
-Wie das SRF in einer Pressemitteilung bekannt gibt, verlässt Amira Hafner-Al Jabaji (49) den Sender.
-«Amira Hafner-Al Jabaji wird sich in Zukunft wieder vermehrt auf eigene interreligiöse Projekte fokussieren», heisst es in der Mitteilung.</t>
-  </si>
-  <si>
     <t>«Take away»-Literaturpreis in Rauris für Benjamin Quaderer ...</t>
   </si>
   <si>
@@ -976,7 +852,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,25 +876,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1056,32 +920,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1360,19 +1215,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,11 +1246,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1405,7 +1260,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="3">
         <v>44209</v>
       </c>
       <c r="E2" t="s">
@@ -1421,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1431,7 +1286,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="3">
         <v>44206</v>
       </c>
       <c r="E3" t="s">
@@ -1447,7 +1302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1457,7 +1312,7 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>44206</v>
       </c>
       <c r="E4" t="s">
@@ -1473,14 +1328,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>44201</v>
       </c>
       <c r="E5" t="s">
@@ -1496,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1506,7 +1361,7 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>44214</v>
       </c>
       <c r="E6" t="s">
@@ -1522,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1532,7 +1387,7 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>44224</v>
       </c>
       <c r="E7" t="s">
@@ -1548,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1558,7 +1413,7 @@
       <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>44223</v>
       </c>
       <c r="E8" t="s">
@@ -1571,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1581,7 +1436,7 @@
       <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>44221</v>
       </c>
       <c r="E9" t="s">
@@ -1597,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1607,7 +1462,7 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>44227</v>
       </c>
       <c r="E10" t="s">
@@ -1623,14 +1478,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>44221</v>
       </c>
       <c r="E11" t="s">
@@ -1646,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1656,7 +1511,7 @@
       <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>44220</v>
       </c>
       <c r="E12" t="s">
@@ -1672,14 +1527,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>44223</v>
       </c>
       <c r="E13" t="s">
@@ -1695,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1705,7 +1560,7 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>44237</v>
       </c>
       <c r="E14" t="s">
@@ -1721,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1731,7 +1586,7 @@
       <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>44238</v>
       </c>
       <c r="E15" t="s">
@@ -1744,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1754,7 +1609,7 @@
       <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <v>44241</v>
       </c>
       <c r="E16" t="s">
@@ -1767,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1777,7 +1632,7 @@
       <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="3">
         <v>44232</v>
       </c>
       <c r="E17" t="s">
@@ -1793,14 +1648,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="3">
         <v>44238</v>
       </c>
       <c r="E18" t="s">
@@ -1816,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1826,7 +1681,7 @@
       <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>44252</v>
       </c>
       <c r="E19" t="s">
@@ -1842,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1852,7 +1707,7 @@
       <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>44248</v>
       </c>
       <c r="E20" t="s">
@@ -1868,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1878,7 +1733,7 @@
       <c r="C21" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>44249</v>
       </c>
       <c r="E21" t="s">
@@ -1891,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1901,7 +1756,7 @@
       <c r="C22" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <v>44262</v>
       </c>
       <c r="E22" t="s">
@@ -1917,587 +1772,665 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="3">
+        <v>44265</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="3">
+        <v>44266</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="3">
+        <v>44269</v>
+      </c>
+      <c r="E25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="3">
+        <v>44297.823307723302</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="3">
+        <v>44299.823307734892</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="3">
+        <v>44297.823307781167</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="3">
+        <v>44297.823307804341</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="3">
+        <v>44297.823307827479</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="3">
+        <v>44313.823645409597</v>
+      </c>
+      <c r="E31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="3">
+        <v>44313.823645421173</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="3">
+        <v>44313.823645432742</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="3">
+        <v>44313.823645455886</v>
+      </c>
+      <c r="E34" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="3">
+        <v>44313.823645479068</v>
+      </c>
+      <c r="E35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="3">
+        <v>44320.823645490651</v>
+      </c>
+      <c r="E36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="3">
+        <v>44320.823645513767</v>
+      </c>
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="3">
+        <v>44320.823645525343</v>
+      </c>
+      <c r="E38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="3">
+        <v>44313.823645548488</v>
+      </c>
+      <c r="E39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="3">
+        <v>44313.823645560071</v>
+      </c>
+      <c r="E40" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="3">
+        <v>44320.823950441023</v>
+      </c>
+      <c r="E41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="3">
+        <v>44320.823950452606</v>
+      </c>
+      <c r="E42" t="s">
+        <v>183</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="3">
+        <v>44320.823950464168</v>
+      </c>
+      <c r="E43" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="3">
+        <v>44320.823950475737</v>
+      </c>
+      <c r="E44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="3">
+        <v>44324.823950487313</v>
+      </c>
+      <c r="E45" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>52</v>
       </c>
-      <c r="D23" s="8">
-        <v>44258</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="7">
-        <v>44265</v>
-      </c>
-      <c r="E24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="7">
-        <v>44266</v>
-      </c>
-      <c r="E25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="7">
-        <v>44269</v>
-      </c>
-      <c r="E26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="8">
-        <v>44297.822811248727</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="8">
-        <v>44297.822811271901</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="8">
-        <v>44297.822811306607</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="8">
-        <v>44297.822811329737</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="8">
-        <v>44297.822811364487</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="7">
-        <v>44297.822811399223</v>
-      </c>
-      <c r="E32" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="7">
-        <v>44297.823307723302</v>
-      </c>
-      <c r="E33" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="7">
-        <v>44299.823307734892</v>
-      </c>
-      <c r="E34" t="s">
-        <v>144</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="8">
-        <v>44297.823307758023</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="7">
-        <v>44297.823307781167</v>
-      </c>
-      <c r="E36" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="7">
-        <v>44297.823307804341</v>
-      </c>
-      <c r="E37" t="s">
-        <v>158</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="7">
-        <v>44297.823307827479</v>
-      </c>
-      <c r="E38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="7">
-        <v>44313.823645409597</v>
-      </c>
-      <c r="E39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="7">
-        <v>44313.823645421173</v>
-      </c>
-      <c r="E40" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="7">
-        <v>44313.823645432742</v>
-      </c>
-      <c r="E41" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>179</v>
-      </c>
-      <c r="C42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="7">
-        <v>44313.823645455886</v>
-      </c>
-      <c r="E42" t="s">
-        <v>180</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>183</v>
-      </c>
-      <c r="C43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="7">
-        <v>44313.823645479068</v>
-      </c>
-      <c r="E43" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="7">
-        <v>44320.823645490651</v>
-      </c>
-      <c r="E44" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G44" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C45" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45" s="7">
-        <v>44320.823645513767</v>
-      </c>
-      <c r="E45" t="s">
-        <v>193</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="B46" t="s">
         <v>194</v>
       </c>
-      <c r="G45" t="s">
+      <c r="C46" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D46" s="3">
+        <v>44323.823950498903</v>
+      </c>
+      <c r="E46" t="s">
         <v>196</v>
       </c>
-      <c r="C46" t="s">
+      <c r="F46" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="7">
-        <v>44320.823645525343</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>198</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
         <v>199</v>
       </c>
-      <c r="G46" t="s">
+      <c r="C47" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="D47" s="3">
+        <v>44321.823950510458</v>
+      </c>
+      <c r="E47" t="s">
         <v>201</v>
       </c>
-      <c r="C47" t="s">
+      <c r="F47" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D47" s="7">
-        <v>44313.823645548488</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>203</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
         <v>204</v>
-      </c>
-      <c r="G47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>205</v>
       </c>
       <c r="C48" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="7">
-        <v>44313.823645560071</v>
+      <c r="D48" s="3">
+        <v>44320.823950522063</v>
       </c>
       <c r="E48" t="s">
         <v>206</v>
@@ -2508,19 +2441,22 @@
       <c r="G48" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>209</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="7">
-        <v>44320.823950441023</v>
+        <v>105</v>
+      </c>
+      <c r="D49" s="3">
+        <v>44326.82395053361</v>
       </c>
       <c r="E49" t="s">
         <v>210</v>
@@ -2531,10 +2467,13 @@
       <c r="G49" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
         <v>213</v>
@@ -2542,8 +2481,8 @@
       <c r="C50" t="s">
         <v>214</v>
       </c>
-      <c r="D50" s="7">
-        <v>44320.823950452606</v>
+      <c r="D50" s="3">
+        <v>44323.8239505452</v>
       </c>
       <c r="E50" t="s">
         <v>215</v>
@@ -2554,189 +2493,8 @@
       <c r="G50" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" t="s">
-        <v>197</v>
-      </c>
-      <c r="D51" s="7">
-        <v>44320.823950464168</v>
-      </c>
-      <c r="E51" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G51" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>218</v>
-      </c>
-      <c r="C52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="7">
-        <v>44320.823950475737</v>
-      </c>
-      <c r="E52" t="s">
-        <v>219</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G52" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="7">
-        <v>44324.823950487313</v>
-      </c>
-      <c r="E53" t="s">
-        <v>223</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G53" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" t="s">
-        <v>227</v>
-      </c>
-      <c r="D54" s="7">
-        <v>44323.823950498903</v>
-      </c>
-      <c r="E54" t="s">
-        <v>228</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G54" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>231</v>
-      </c>
-      <c r="C55" t="s">
-        <v>232</v>
-      </c>
-      <c r="D55" s="7">
-        <v>44321.823950510458</v>
-      </c>
-      <c r="E55" t="s">
-        <v>233</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G55" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>236</v>
-      </c>
-      <c r="C56" t="s">
-        <v>237</v>
-      </c>
-      <c r="D56" s="7">
-        <v>44320.823950522063</v>
-      </c>
-      <c r="E56" t="s">
-        <v>238</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G56" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>241</v>
-      </c>
-      <c r="C57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="7">
-        <v>44326.82395053361</v>
-      </c>
-      <c r="E57" t="s">
-        <v>242</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G57" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" t="s">
-        <v>246</v>
-      </c>
-      <c r="D58" s="7">
-        <v>44323.8239505452</v>
-      </c>
-      <c r="E58" t="s">
-        <v>247</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G58" t="s">
-        <v>249</v>
+      <c r="H50">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2762,44 +2520,36 @@
     <hyperlink ref="F20" r:id="rId19" xr:uid="{B23FF308-E801-436E-988D-609D1D9D6F22}"/>
     <hyperlink ref="F21" r:id="rId20" xr:uid="{334DD26F-309D-43FC-9ABF-0798E130A79C}"/>
     <hyperlink ref="F22" r:id="rId21" xr:uid="{A4792437-764E-4BDE-BCA2-AEF5BB53FA44}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{3A1C6782-FC6F-43DD-93A1-D96792A1886E}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{840B6F11-9950-42FC-8199-B4A675F3AAF2}"/>
-    <hyperlink ref="F25" r:id="rId24" xr:uid="{64FABEF8-D0FF-4A8F-95EA-F009D2D07938}"/>
-    <hyperlink ref="F26" r:id="rId25" xr:uid="{E0E9059C-AFDD-4E8F-A66B-DB87EE2FF72F}"/>
-    <hyperlink ref="F27" r:id="rId26" xr:uid="{3839FD80-92DD-4FFC-B523-6A0CD2568691}"/>
-    <hyperlink ref="F28" r:id="rId27" xr:uid="{F11A102C-F28B-4DA8-B768-D4A9EDFB2A3D}"/>
-    <hyperlink ref="F29" r:id="rId28" xr:uid="{8C572E79-D2E2-419B-8B4A-9461B9453888}"/>
-    <hyperlink ref="F30" r:id="rId29" xr:uid="{74EBF412-EA34-40CC-B032-6916A5A41214}"/>
-    <hyperlink ref="F31" r:id="rId30" xr:uid="{337B5FB4-43FD-4290-B821-F3FA1B242B7F}"/>
-    <hyperlink ref="F32" r:id="rId31" xr:uid="{99F2DD78-45E6-4C6F-B581-9EC8E54FA0CC}"/>
-    <hyperlink ref="F33" r:id="rId32" xr:uid="{7456486A-4146-455D-B551-489E420F497A}"/>
-    <hyperlink ref="F34" r:id="rId33" xr:uid="{B9A1241A-3E61-4210-8D53-F6FD46A6BC35}"/>
-    <hyperlink ref="F35" r:id="rId34" xr:uid="{51F13ABD-E4F7-438A-AB47-1FC741843BF9}"/>
-    <hyperlink ref="F36" r:id="rId35" xr:uid="{9C61ECED-D6DD-4B3D-8BD6-B5BB7B890EAF}"/>
-    <hyperlink ref="F37" r:id="rId36" xr:uid="{7999B4C8-215E-4ABF-A469-ED66A182D652}"/>
-    <hyperlink ref="F38" r:id="rId37" xr:uid="{A93842FF-3002-42ED-B733-BE686A707D47}"/>
-    <hyperlink ref="F39" r:id="rId38" xr:uid="{E25A654E-77D3-4925-9669-607D8DC303F5}"/>
-    <hyperlink ref="F40" r:id="rId39" xr:uid="{CC21864A-82DC-4310-A022-C4FCC2CFFBD8}"/>
-    <hyperlink ref="F41" r:id="rId40" xr:uid="{40AE1157-3DB4-4D11-9AFD-F6D864098AC6}"/>
-    <hyperlink ref="F42" r:id="rId41" xr:uid="{B2A9BAA1-0149-42FD-8B4F-E89465597B66}"/>
-    <hyperlink ref="F43" r:id="rId42" xr:uid="{4ACC959D-BD29-4C5A-9A12-D40ED58CA56A}"/>
-    <hyperlink ref="F44" r:id="rId43" xr:uid="{1B23E912-8431-4B50-A10D-48C38C9E8FD2}"/>
-    <hyperlink ref="F45" r:id="rId44" xr:uid="{9EE22814-FD32-4280-A113-0044E4519307}"/>
-    <hyperlink ref="F46" r:id="rId45" xr:uid="{77CB504A-BA14-4449-A643-85C9B2EAB93E}"/>
-    <hyperlink ref="F47" r:id="rId46" xr:uid="{1F1BCA70-C614-4FDF-8261-620AB080B05B}"/>
-    <hyperlink ref="F48" r:id="rId47" xr:uid="{1C6B30AE-8CE4-484D-B025-A723382906DB}"/>
-    <hyperlink ref="F49" r:id="rId48" xr:uid="{9A204112-957E-4077-9F5A-4C1B135B1D1C}"/>
-    <hyperlink ref="F50" r:id="rId49" xr:uid="{D1B5F2BF-5AE5-4183-8163-8DF3CF863441}"/>
-    <hyperlink ref="F51" r:id="rId50" xr:uid="{0A16B353-EECB-4A16-AF70-704EC5818838}"/>
-    <hyperlink ref="F52" r:id="rId51" xr:uid="{8E5603D4-0C80-4A30-BEC4-DE7D9525987F}"/>
-    <hyperlink ref="F53" r:id="rId52" xr:uid="{F390CC42-4516-4DF5-AC5D-C1C155269310}"/>
-    <hyperlink ref="F54" r:id="rId53" xr:uid="{FB06F9A1-1806-42A2-9E3C-B4182A16FF7A}"/>
-    <hyperlink ref="F55" r:id="rId54" xr:uid="{D72DB6FB-4829-4D6F-81A5-4088F0BD9274}"/>
-    <hyperlink ref="F56" r:id="rId55" xr:uid="{89EB0166-7AF9-4834-9ADF-3F92868A9686}"/>
-    <hyperlink ref="F57" r:id="rId56" xr:uid="{91CB9E1D-C23B-4604-846A-2D23C2998A56}"/>
-    <hyperlink ref="F58" r:id="rId57" xr:uid="{E1CA9DB8-E761-48C8-B104-6FD76DBB6636}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{840B6F11-9950-42FC-8199-B4A675F3AAF2}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{64FABEF8-D0FF-4A8F-95EA-F009D2D07938}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{E0E9059C-AFDD-4E8F-A66B-DB87EE2FF72F}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{7456486A-4146-455D-B551-489E420F497A}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{B9A1241A-3E61-4210-8D53-F6FD46A6BC35}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{9C61ECED-D6DD-4B3D-8BD6-B5BB7B890EAF}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{7999B4C8-215E-4ABF-A469-ED66A182D652}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{A93842FF-3002-42ED-B733-BE686A707D47}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{E25A654E-77D3-4925-9669-607D8DC303F5}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{CC21864A-82DC-4310-A022-C4FCC2CFFBD8}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{40AE1157-3DB4-4D11-9AFD-F6D864098AC6}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{B2A9BAA1-0149-42FD-8B4F-E89465597B66}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{4ACC959D-BD29-4C5A-9A12-D40ED58CA56A}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{1B23E912-8431-4B50-A10D-48C38C9E8FD2}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{9EE22814-FD32-4280-A113-0044E4519307}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{77CB504A-BA14-4449-A643-85C9B2EAB93E}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{1F1BCA70-C614-4FDF-8261-620AB080B05B}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{1C6B30AE-8CE4-484D-B025-A723382906DB}"/>
+    <hyperlink ref="F41" r:id="rId40" xr:uid="{9A204112-957E-4077-9F5A-4C1B135B1D1C}"/>
+    <hyperlink ref="F42" r:id="rId41" xr:uid="{D1B5F2BF-5AE5-4183-8163-8DF3CF863441}"/>
+    <hyperlink ref="F43" r:id="rId42" xr:uid="{0A16B353-EECB-4A16-AF70-704EC5818838}"/>
+    <hyperlink ref="F44" r:id="rId43" xr:uid="{8E5603D4-0C80-4A30-BEC4-DE7D9525987F}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{F390CC42-4516-4DF5-AC5D-C1C155269310}"/>
+    <hyperlink ref="F46" r:id="rId45" xr:uid="{FB06F9A1-1806-42A2-9E3C-B4182A16FF7A}"/>
+    <hyperlink ref="F47" r:id="rId46" xr:uid="{D72DB6FB-4829-4D6F-81A5-4088F0BD9274}"/>
+    <hyperlink ref="F48" r:id="rId47" xr:uid="{89EB0166-7AF9-4834-9ADF-3F92868A9686}"/>
+    <hyperlink ref="F49" r:id="rId48" xr:uid="{91CB9E1D-C23B-4604-846A-2D23C2998A56}"/>
+    <hyperlink ref="F50" r:id="rId49" xr:uid="{E1CA9DB8-E761-48C8-B104-6FD76DBB6636}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId50"/>
 </worksheet>
 </file>